--- a/erc20-multiple-withdrawal-attack/files/Table.xlsx
+++ b/erc20-multiple-withdrawal-attack/files/Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>It depends on code verification</t>
   </si>
   <si>
-    <t>It is non-comprehensive solution</t>
-  </si>
-  <si>
     <t>It adds only  one line to approve method</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>It secures transferFrom method</t>
   </si>
   <si>
-    <t>Proposed solution</t>
-  </si>
-  <si>
     <t>Does it allow non-zero allowances?</t>
   </si>
   <si>
@@ -180,6 +174,13 @@
   </si>
   <si>
     <t>By not addressingvulnerable functions</t>
+  </si>
+  <si>
+    <t>Proposed
+solution</t>
+  </si>
+  <si>
+    <t>It is not a universal solution</t>
   </si>
 </sst>
 </file>
@@ -196,30 +197,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF00B050"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -373,83 +374,83 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,542 +737,543 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="B19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>10</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="140.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="20" t="s">
+    <row r="23" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="B24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="B26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="117" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>8</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>9</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="140.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>10</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="117" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>11</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="117" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>12</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="117" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1280,18 +1282,18 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A17:A18"/>
@@ -1303,6 +1305,6 @@
     <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="41" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/erc20-multiple-withdrawal-attack/files/Table.xlsx
+++ b/erc20-multiple-withdrawal-attack/files/Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\rezarahimian\papers\erc20-multiple-withdrawal-attack\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F4C1A-1A67-43A0-B982-CF1606DDDF51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -47,15 +48,9 @@
     <t>ü</t>
   </si>
   <si>
-    <t>It does not change any code</t>
-  </si>
-  <si>
     <t>û</t>
   </si>
   <si>
-    <t>By default approve method</t>
-  </si>
-  <si>
     <t>By default transferFrom method</t>
   </si>
   <si>
@@ -77,15 +72,6 @@
     <t>Approving trusted parties</t>
   </si>
   <si>
-    <t>It depends on code verification</t>
-  </si>
-  <si>
-    <t>It adds only  one line to approve method</t>
-  </si>
-  <si>
-    <t>Only forces allowance to be zero before non-zero values</t>
-  </si>
-  <si>
     <t>If it is already zero, otherwise in two calls</t>
   </si>
   <si>
@@ -113,15 +99,9 @@
     <t>It adds new overloaded approve method</t>
   </si>
   <si>
-    <t>By new method with three parameters</t>
-  </si>
-  <si>
     <t>New token standards</t>
   </si>
   <si>
-    <t>It introduces new API</t>
-  </si>
-  <si>
     <t>Detecting token transfers</t>
   </si>
   <si>
@@ -158,9 +138,6 @@
     <t>Monolith DAO</t>
   </si>
   <si>
-    <t>It blocks legit and non-legit allowances as well</t>
-  </si>
-  <si>
     <t>It locks down allowance in case of any token transfer</t>
   </si>
   <si>
@@ -171,9 +148,6 @@
   </si>
   <si>
     <t>Does it remediate vulnerable functions?</t>
-  </si>
-  <si>
-    <t>By not addressingvulnerable functions</t>
   </si>
   <si>
     <t>Proposed
@@ -181,13 +155,61 @@
   </si>
   <si>
     <t>It is not a universal solution</t>
+  </si>
+  <si>
+    <t>It forces allowance to be zero before non-zero values</t>
+  </si>
+  <si>
+    <t>It does not change any contract code</t>
+  </si>
+  <si>
+    <t>By using default approve method</t>
+  </si>
+  <si>
+    <t>By using default transferFrom method</t>
+  </si>
+  <si>
+    <t>It adds only one line to approve method</t>
+  </si>
+  <si>
+    <t>By not implementing vulnerable functions</t>
+  </si>
+  <si>
+    <t>It does not introduce new method</t>
+  </si>
+  <si>
+    <t>It depends on code verification process</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>By calling doTransfer from transferFrom</t>
+  </si>
+  <si>
+    <t>It does not change code of vulnerable functions</t>
+  </si>
+  <si>
+    <t>By new approve method with three parameters</t>
+  </si>
+  <si>
+    <t>By securing approve method</t>
+  </si>
+  <si>
+    <t>It also blocks further legit and non-legit allowances</t>
+  </si>
+  <si>
+    <t>By using modified transferFrom method</t>
+  </si>
+  <si>
+    <t>It introduces new API and methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,20 +232,27 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="26"/>
       <color rgb="FF00B050"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="26"/>
       <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,13 +273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,40 +415,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,36 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,6 +490,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD5D5"/>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,7 +524,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -498,7 +536,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -731,14 +769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,27 +784,27 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -775,513 +813,537 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="B19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>5</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="6" t="s">
+      <c r="B26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>8</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>9</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>10</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>11</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
-        <v>12</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B5:B6"/>
@@ -1294,15 +1356,11 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
